--- a/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -1873,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -8386,13 +8386,13 @@
         <v>2</v>
       </c>
       <c r="F265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -8449,10 +8449,10 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">

--- a/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1086,23 +1086,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1116,23 +1116,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1146,37 +1146,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1291,28 +1291,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1386,23 +1386,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1411,16 +1411,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1446,23 +1446,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1506,23 +1506,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1531,28 +1531,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1566,23 +1566,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1626,20 +1626,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -1651,16 +1651,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1716,23 +1716,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1771,28 +1771,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1806,17 +1806,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1836,20 +1836,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
@@ -1887,29 +1887,29 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1936,13 +1936,13 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1956,23 +1956,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1986,20 +1986,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
@@ -2011,25 +2011,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>3</v>
@@ -2046,14 +2046,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2076,23 +2076,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2131,28 +2131,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2251,28 +2251,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2296,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2316,23 +2316,23 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2346,23 +2346,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2371,16 +2371,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2406,20 +2406,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2466,20 +2466,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
@@ -2491,28 +2491,28 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
         <v>3</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -2526,23 +2526,23 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2556,23 +2556,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2586,32 +2586,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2620,19 +2620,19 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2676,23 +2676,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="n">
         <v>3</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>5</v>
@@ -2731,28 +2731,28 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -2766,14 +2766,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2796,17 +2796,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -2851,16 +2851,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -2886,14 +2886,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2916,23 +2916,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>3</v>
@@ -2971,28 +2971,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3016,13 +3016,13 @@
         <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -3036,23 +3036,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -3061,28 +3061,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -3091,28 +3091,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -3126,23 +3126,23 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3156,23 +3156,23 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3181,28 +3181,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3211,25 +3211,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3246,17 +3246,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3276,20 +3276,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3301,28 +3301,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3331,28 +3331,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3366,23 +3366,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -3396,23 +3396,23 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -3421,28 +3421,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3451,28 +3451,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3486,23 +3486,23 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3516,83 +3516,83 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3606,23 +3606,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -3636,23 +3636,23 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -3661,28 +3661,28 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -3691,28 +3691,28 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -3726,23 +3726,23 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3756,23 +3756,23 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3781,28 +3781,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -3811,28 +3811,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -3846,23 +3846,23 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3876,23 +3876,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -3901,28 +3901,28 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -3931,25 +3931,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -3966,23 +3966,23 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3996,23 +3996,23 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4021,28 +4021,28 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -4051,25 +4051,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>2</v>
@@ -4086,23 +4086,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4116,20 +4116,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>2</v>
@@ -4141,28 +4141,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -4171,28 +4171,28 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -4206,17 +4206,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -4236,20 +4236,20 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4291,28 +4291,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4326,23 +4326,23 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4356,23 +4356,23 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4381,22 +4381,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4411,28 +4411,28 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4446,23 +4446,23 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -4476,80 +4476,80 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>2</v>
@@ -4566,23 +4566,23 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -4596,23 +4596,23 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4621,28 +4621,28 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -4651,28 +4651,28 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
         <v>3</v>
       </c>
-      <c r="F141" t="n">
-        <v>2</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
       <c r="H141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -4686,23 +4686,23 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4716,20 +4716,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -4741,22 +4741,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4771,25 +4771,25 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="D145" t="n">
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -4806,23 +4806,23 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4836,23 +4836,23 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Serbia and Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4861,28 +4861,28 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -4891,28 +4891,28 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Serbia and Montenegro</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -4926,17 +4926,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4956,20 +4956,20 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -4981,22 +4981,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -5011,25 +5011,25 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -5046,17 +5046,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5076,23 +5076,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5101,28 +5101,28 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -5131,28 +5131,28 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -5166,23 +5166,23 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5196,23 +5196,23 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
         <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
@@ -5221,28 +5221,28 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -5251,28 +5251,28 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -5286,23 +5286,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5316,20 +5316,20 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>2</v>
@@ -5341,28 +5341,28 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -5371,25 +5371,25 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -5406,17 +5406,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -5436,20 +5436,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -5457,62 +5457,62 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5526,17 +5526,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -5556,20 +5556,20 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -5581,28 +5581,28 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -5611,28 +5611,28 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -5646,23 +5646,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5676,20 +5676,20 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
@@ -5701,16 +5701,16 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -5731,28 +5731,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5796,23 +5796,23 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -5821,19 +5821,19 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -5851,25 +5851,25 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
         <v>2</v>
@@ -5886,23 +5886,23 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -5916,23 +5916,23 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -5941,28 +5941,28 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -5971,28 +5971,28 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6006,23 +6006,23 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6036,20 +6036,20 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>2</v>
@@ -6061,28 +6061,28 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -6091,25 +6091,25 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>2</v>
@@ -6126,23 +6126,23 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6156,17 +6156,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -6181,28 +6181,28 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -6211,12 +6211,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -6229,10 +6229,10 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -6246,17 +6246,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -6276,20 +6276,20 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>North Korea</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -6301,22 +6301,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -6331,28 +6331,28 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>North Korea</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -6366,23 +6366,23 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6396,47 +6396,47 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -6447,29 +6447,29 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
@@ -6486,17 +6486,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -6516,20 +6516,20 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
         <v>1</v>
@@ -6541,22 +6541,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -6571,25 +6571,25 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D205" t="n">
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>1</v>
@@ -6606,23 +6606,23 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -6636,23 +6636,23 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D207" t="n">
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -6661,28 +6661,28 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -6691,28 +6691,28 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D209" t="n">
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -6726,23 +6726,23 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -6756,23 +6756,23 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D211" t="n">
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
@@ -6781,28 +6781,28 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -6811,25 +6811,25 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>2</v>
@@ -6846,23 +6846,23 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -6876,20 +6876,20 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>2</v>
@@ -6901,28 +6901,28 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -6931,25 +6931,25 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>2</v>
@@ -6966,23 +6966,23 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6996,20 +6996,20 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D219" t="n">
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
@@ -7021,28 +7021,28 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -7051,28 +7051,28 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="D221" t="n">
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -7086,23 +7086,23 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -7116,23 +7116,23 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -7141,28 +7141,28 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -7171,28 +7171,28 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>0</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -7206,20 +7206,20 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
         <v>2</v>
@@ -7236,20 +7236,20 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>2</v>
@@ -7261,28 +7261,28 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -7291,28 +7291,28 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D229" t="n">
         <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -7326,23 +7326,23 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -7356,80 +7356,80 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>2</v>
@@ -7446,23 +7446,23 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -7476,23 +7476,23 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -7501,28 +7501,28 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2</v>
+      </c>
+      <c r="H236" t="n">
         <v>3</v>
-      </c>
-      <c r="E236" t="n">
-        <v>2</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
-      </c>
-      <c r="H236" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="237">
@@ -7531,28 +7531,28 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
         <v>3</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
-      </c>
-      <c r="H237" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -7566,23 +7566,23 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -7596,23 +7596,23 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
@@ -7621,28 +7621,28 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -7651,28 +7651,28 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -7686,23 +7686,23 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -7716,23 +7716,23 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D243" t="n">
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -7741,28 +7741,28 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -7771,28 +7771,28 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D245" t="n">
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -7806,23 +7806,23 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -7836,17 +7836,17 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D247" t="n">
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -7861,28 +7861,28 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -7891,28 +7891,28 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
@@ -7926,23 +7926,23 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -7956,23 +7956,23 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -7981,28 +7981,28 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -8011,25 +8011,25 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
         <v>2</v>
@@ -8046,17 +8046,17 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -8076,20 +8076,20 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
         <v>2</v>
@@ -8101,28 +8101,28 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -8131,28 +8131,28 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -8166,23 +8166,23 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -8196,23 +8196,23 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D259" t="n">
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -8221,28 +8221,28 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -8251,28 +8251,28 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -8286,20 +8286,20 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
         <v>2</v>
@@ -8316,20 +8316,20 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
         <v>2</v>
@@ -8337,29 +8337,29 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>2</v>
@@ -8367,11 +8367,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group H</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8383,16 +8383,16 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -8406,23 +8406,23 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D266" t="n">
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -8436,23 +8436,23 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="D267" t="n">
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268">
@@ -8461,28 +8461,28 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269">
@@ -8491,28 +8491,28 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="D269" t="n">
         <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -8526,23 +8526,23 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -8556,20 +8556,20 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
         <v>2</v>
@@ -8581,19 +8581,19 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>1</v>
@@ -8611,28 +8611,28 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -8646,23 +8646,23 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -8676,23 +8676,23 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -8701,28 +8701,28 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -8731,28 +8731,28 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D277" t="n">
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -8766,23 +8766,23 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -8796,23 +8796,23 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D279" t="n">
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -8821,19 +8821,19 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F280" t="n">
         <v>1</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -8851,28 +8851,28 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F281" t="n">
         <v>1</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -8886,20 +8886,20 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>6</v>
@@ -8916,23 +8916,23 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D283" t="n">
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -8941,28 +8941,28 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285">
@@ -8971,28 +8971,28 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="D285" t="n">
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
@@ -9006,17 +9006,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -9036,20 +9036,20 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>2</v>
@@ -9061,28 +9061,28 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -9091,28 +9091,28 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Group G</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D289" t="n">
         <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -9126,23 +9126,23 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -9156,20 +9156,20 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D291" t="n">
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
         <v>3</v>
@@ -9181,28 +9181,28 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292" t="n">
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -9211,25 +9211,25 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Group H</t>
+          <t>Group G</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D293" t="n">
         <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H293" t="n">
         <v>3</v>
@@ -9246,23 +9246,23 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -9276,23 +9276,83 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" t="n">
-        <v>1</v>
-      </c>
-      <c r="F295" t="n">
-        <v>1</v>
-      </c>
-      <c r="G295" t="n">
-        <v>2</v>
-      </c>
-      <c r="H295" t="n">
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Group H</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
+++ b/data/out/kaggle/uefa/tb_wc_uefa_men.xlsx
@@ -2206,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2296,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2389,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2470,13 +2470,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3559,10 +3559,10 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>3</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -4396,13 +4396,13 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5086,13 +5086,13 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5236,10 +5236,10 @@
         <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>6</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>4</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -5716,13 +5716,13 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -5893,10 +5893,10 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6406,13 +6406,13 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -6469,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -7093,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -7159,10 +7159,10 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -7186,13 +7186,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -7276,10 +7276,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>2</v>
@@ -7306,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>2</v>
@@ -8056,13 +8056,13 @@
         <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -8149,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -8653,10 +8653,10 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -8743,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -8896,13 +8896,13 @@
         <v>3</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -8983,10 +8983,10 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
